--- a/R/analysis/data/Pt_38_M1.xlsx
+++ b/R/analysis/data/Pt_38_M1.xlsx
@@ -524,7 +524,7 @@
         <v>0.5</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.25</v>
+        <v>2.25</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>1.79</v>
       </c>
       <c r="L3" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>0.71</v>
@@ -635,16 +635,16 @@
         <v>1.88</v>
       </c>
       <c r="K4" t="n">
-        <v>4.42</v>
+        <v>0.18</v>
       </c>
       <c r="L4" t="n">
-        <v>0.12</v>
+        <v>3.12</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65</v>
+        <v>0.53</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.38</v>
+        <v>1.88</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>1.2</v>
       </c>
       <c r="L6" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="e">
@@ -809,10 +809,10 @@
         <v>1.4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.01</v>
+        <v>0.47</v>
       </c>
       <c r="L7" t="n">
-        <v>0.33</v>
+        <v>2.84</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
@@ -872,7 +872,7 @@
       </c>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>1.27</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.43</v>
+        <v>3.43</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="n">
@@ -979,16 +979,16 @@
         <v>0.9</v>
       </c>
       <c r="K10" t="n">
-        <v>3.84</v>
+        <v>1.01</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.72</v>
+        <v>2.71</v>
       </c>
       <c r="M10" t="n">
-        <v>2.12</v>
+        <v>0.71</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.33</v>
+        <v>2.33</v>
       </c>
       <c r="M12" t="n">
         <v>0.71</v>
@@ -1153,10 +1153,10 @@
         <v>1.44</v>
       </c>
       <c r="K13" t="n">
-        <v>3.77</v>
+        <v>0.47</v>
       </c>
       <c r="L13" t="n">
-        <v>0.33</v>
+        <v>2.66</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0.46</v>
@@ -1274,7 +1274,7 @@
         <v>1.21</v>
       </c>
       <c r="L15" t="n">
-        <v>-2.33</v>
+        <v>2.33</v>
       </c>
       <c r="M15" t="n">
         <v>0.71</v>
@@ -1331,16 +1331,16 @@
         <v>1.77</v>
       </c>
       <c r="K16" t="n">
-        <v>4.27</v>
+        <v>0.98</v>
       </c>
       <c r="L16" t="n">
-        <v>0.69</v>
+        <v>3.02</v>
       </c>
       <c r="M16" t="n">
-        <v>3.18</v>
+        <v>0.35</v>
       </c>
       <c r="N16" t="n">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="O16" t="n">
         <v>0.09</v>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>0.35</v>
@@ -1450,7 +1450,7 @@
         <v>1.41</v>
       </c>
       <c r="L18" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="e">
@@ -1505,14 +1505,14 @@
         <v>1.78</v>
       </c>
       <c r="K19" t="n">
-        <v>4.74</v>
+        <v>0.5</v>
       </c>
       <c r="L19" t="n">
-        <v>0.36</v>
+        <v>3.36</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
         <v>0.09</v>
@@ -1624,7 +1624,7 @@
         <v>1.6</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.83</v>
+        <v>1.83</v>
       </c>
       <c r="M21" t="n">
         <v>1.41</v>
@@ -1681,10 +1681,10 @@
         <v>2.94</v>
       </c>
       <c r="K22" t="n">
-        <v>3.42</v>
+        <v>0.83</v>
       </c>
       <c r="L22" t="n">
-        <v>0.58</v>
+        <v>2.42</v>
       </c>
       <c r="M22" t="n">
         <v>0.71</v>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>2.28</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.2</v>
+        <v>2.2</v>
       </c>
       <c r="M24" t="n">
         <v>1.15</v>
@@ -1857,16 +1857,16 @@
         <v>1.4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.78</v>
+        <v>0.66</v>
       </c>
       <c r="L25" t="n">
-        <v>0.47</v>
+        <v>2.67</v>
       </c>
       <c r="M25" t="n">
-        <v>1.65</v>
+        <v>0.23</v>
       </c>
       <c r="N25" t="n">
-        <v>0.17</v>
+        <v>1.17</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>1.71</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="M27" t="n">
         <v>0.96</v>
@@ -2031,10 +2031,10 @@
         <v>0.97</v>
       </c>
       <c r="K28" t="n">
-        <v>2.92</v>
+        <v>0.45</v>
       </c>
       <c r="L28" t="n">
-        <v>0.31</v>
+        <v>2.06</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
